--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D7B9F6-BFB2-4F42-848D-92593F24E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DCFCD-6BB7-4334-88CA-07B8473176AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="1476" windowWidth="17099" windowHeight="11883" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="1455" yWindow="1470" windowWidth="17100" windowHeight="11880" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,24 +85,33 @@
   <si>
     <t>Glass</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Sand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,7 +120,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:G11" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:G12" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6F7920FD-881E-4ACC-B371-596C4C5A23D8}" name="Name"/>
     <tableColumn id="2" xr3:uid="{81785AEB-273F-45A0-A058-30B3A5C50566}" name="Tier"/>
@@ -527,27 +525,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +567,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -577,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -585,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -593,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -601,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -621,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -641,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -661,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -679,6 +677,26 @@
       </c>
       <c r="G11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DCFCD-6BB7-4334-88CA-07B8473176AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F33B7-924E-40B0-A339-BEFD1EB84D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1470" windowWidth="17100" windowHeight="11880" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="9886" yWindow="2481" windowWidth="17147" windowHeight="10152" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,24 +94,28 @@
   </si>
   <si>
     <t>Sand</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,7 +124,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:G12" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:G13" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6F7920FD-881E-4ACC-B371-596C4C5A23D8}" name="Name"/>
     <tableColumn id="2" xr3:uid="{81785AEB-273F-45A0-A058-30B3A5C50566}" name="Tier"/>
@@ -525,27 +529,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +571,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -575,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -583,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -591,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -599,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -619,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -659,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -679,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -697,6 +701,26 @@
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F33B7-924E-40B0-A339-BEFD1EB84D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFABD5BE-4402-4DAA-8745-56944A030B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9886" yWindow="2481" windowWidth="17147" windowHeight="10152" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="9885" yWindow="2475" windowWidth="17145" windowHeight="10155" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,18 +104,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,7 +124,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -535,21 +535,21 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>18</v>
       </c>

--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFABD5BE-4402-4DAA-8745-56944A030B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED41DC-A20D-49E6-BE09-4856425A6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="2475" windowWidth="17145" windowHeight="10155" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="6450" yWindow="1851" windowWidth="17147" windowHeight="10153" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,16 +87,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Sand</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
+    <t>Milk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,18 +95,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -124,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,8 +189,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:G13" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B3:G12" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G12">
+    <sortCondition descending="1" ref="C3:C12"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6F7920FD-881E-4ACC-B371-596C4C5A23D8}" name="Name"/>
     <tableColumn id="2" xr3:uid="{81785AEB-273F-45A0-A058-30B3A5C50566}" name="Tier"/>
@@ -529,27 +523,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +565,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -579,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -587,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -595,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -603,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -623,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -643,84 +637,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED41DC-A20D-49E6-BE09-4856425A6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D7C270-DCD4-4081-A7EE-2B3FECBFFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="1851" windowWidth="17147" windowHeight="10153" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="4744" yWindow="1379" windowWidth="20861" windowHeight="14509" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,31 +74,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cocktail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milk</t>
+    <t>Aether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frostbloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Times Used </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir of Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vivaqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unfading Particles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanaqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifefruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devoraqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Originisite Dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignisite Dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florite Dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frostbloom Dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystbell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystaqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floriaqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terraria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamejaw Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Flamejaw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elixir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dissoaqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eradicate diseases, maintain youth,  Immortality within reach.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water of life, mere drops of it  can cure all wounds and diseases. A war was started, countless dead for that which promises life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny particles that glows a dim light and never fades, repels with each other, extreamely hard to store.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water of health, also known as "Greater Healing Potion", cures wounds at very fast speed, very shiny.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A non-natural growing fruit, a mutation of Terraria when exposed in high density Florigen, very bitter but proven the capabilty to cure many deadly diseases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water that Devoures, feast and digests whatever that is thrown into it, very hard to contain, only used to process extreamly hard matters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange magical fusion happened when Ignisite and Florite dusts are compressed, the rapid burn and growth energy eventurely caused the two to intertwine into a new crystal known as Originisite.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal of fire, contains high density fire element, Its purity can be judged by its heat and brightness, commonly used as energy sources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal of grass, the life energy in the wild crystal is restless, slowly growing as if it is a living being.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dusted Ignisite, usually comes with a explosion when crushing. Fire energy quickly escapes after crushed, leaving usually only fractions of the energy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dusted Florite, it is very difficult to prevent the life energy within from withering, or rapidly growing once it gets in your nose.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,18 +298,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -189,18 +356,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:G12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B3:G12" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G12">
-    <sortCondition descending="1" ref="C3:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:I34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B3:I34" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I34">
+    <sortCondition ref="C3:C34"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6F7920FD-881E-4ACC-B371-596C4C5A23D8}" name="Name"/>
     <tableColumn id="2" xr3:uid="{81785AEB-273F-45A0-A058-30B3A5C50566}" name="Tier"/>
-    <tableColumn id="3" xr3:uid="{1A353CE0-4CD9-4A76-BB14-A218C3B471A4}" name="Component 1"/>
+    <tableColumn id="3" xr3:uid="{1A353CE0-4CD9-4A76-BB14-A218C3B471A4}" name="Component 1" dataDxfId="2">
+      <calculatedColumnFormula>B5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{9F8FD1CD-4E9B-4D4A-AC97-C986C82DF9FC}" name="Component 1 count"/>
-    <tableColumn id="5" xr3:uid="{91603AF0-FEDB-4E16-9A25-108561A79C0B}" name="Component 2"/>
+    <tableColumn id="5" xr3:uid="{91603AF0-FEDB-4E16-9A25-108561A79C0B}" name="Component 2" dataDxfId="1">
+      <calculatedColumnFormula>B6</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{FA6328F5-DDC0-4F0C-96ED-9D3CCBD4BC8A}" name="Component 2 count"/>
+    <tableColumn id="7" xr3:uid="{3B328ECD-2F41-4DD5-A318-188EC0E38CE1}" name="Type"/>
+    <tableColumn id="8" xr3:uid="{27A68D5E-C51A-4C78-9BED-B386D9F1D40F}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,27 +696,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,146 +736,783 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>B5</f>
+        <v>Vivaqua</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>B6</f>
+        <v>Unfading Particles</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Elixir of Life</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(D4:D34,L4,E4:E34)+SUMIF(Items[Component 2],L4,Items[Component 2 count])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>B7</f>
+        <v>Sanaqua</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>B8</f>
+        <v>Lifefruit</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Vivaqua</v>
+      </c>
+      <c r="M5">
+        <f>SUMIF(D5:D18,L5,E5:E18)+SUMIF(Items[Component 2],L5,Items[Component 2 count])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>B10</f>
+        <v>Originisite Dust</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>B9</f>
+        <v>Devoraqua</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Unfading Particles</v>
+      </c>
+      <c r="M6">
+        <f>SUMIF(D6:D19,L6,E6:E19)+SUMIF(Items[Component 2],L6,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <f>B18</f>
+        <v>Crystaqua</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>B16</f>
+        <v>Frostbloom Dust</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Sanaqua</v>
+      </c>
+      <c r="M7">
+        <f>SUMIF(D7:D20,L7,E7:E20)+SUMIF(Items[Component 2],L7,Items[Component 2 count])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B20</f>
+        <v>Terraria</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>B21</f>
+        <v>Florigen</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Lifefruit</v>
+      </c>
+      <c r="M8">
+        <f>SUMIF(D8:D21,L8,E8:E21)+SUMIF(Items[Component 2],L8,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="D9" t="str">
+        <f>B24</f>
+        <v>Dissoaqua</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
+      <c r="F9" t="str">
+        <f>B22</f>
+        <v>Flamejaw Oil</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Devoraqua</v>
+      </c>
+      <c r="M9">
+        <f>SUMIF(D9:D22,L9,E9:E22)+SUMIF(Items[Component 2],L9,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f>B13</f>
+        <v>Ignisite Dust</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>B14</f>
+        <v>Florite Dust</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Originisite Dust</v>
+      </c>
+      <c r="M10">
+        <f>SUMIF(D10:D23,L10,E10:E23)+SUMIF(Items[Component 2],L10,Items[Component 2 count])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f>B25</f>
+        <v>Crystal</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>B32</f>
+        <v>Fire</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Ignisite</v>
+      </c>
+      <c r="M11">
+        <f>SUMIF(D11:D24,L11,E11:E24)+SUMIF(Items[Component 2],L11,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <f>B25</f>
+        <v>Crystal</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>B30</f>
+        <v>Grass</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Florite</v>
+      </c>
+      <c r="M12">
+        <f>SUMIF(D12:D25,L12,E12:E25)+SUMIF(Items[Component 2],L12,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f>B11</f>
+        <v>Ignisite</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Ignisite Dust</v>
+      </c>
+      <c r="M13">
+        <f>SUMIF(D13:D26,L13,E13:E26)+SUMIF(Items[Component 2],L13,Items[Component 2 count])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f>B12</f>
+        <v>Florite</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Florite Dust</v>
+      </c>
+      <c r="M14">
+        <f>SUMIF(D14:D27,L14,E14:E27)+SUMIF(Items[Component 2],L14,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f>B19</f>
+        <v>Floriaqua</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>B26</f>
+        <v>Ice</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="L15" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Frostbloom</v>
+      </c>
+      <c r="M15">
+        <f>SUMIF(D15:D28,L15,E15:E28)+SUMIF(Items[Component 2],L15,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="str">
+        <f>B15</f>
+        <v>Frostbloom</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="L16" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Frostbloom Dust</v>
+      </c>
+      <c r="M16">
+        <f>SUMIF(D16:D29,L16,E16:E29)+SUMIF(Items[Component 2],L16,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <f>B25</f>
+        <v>Crystal</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>B19</f>
+        <v>Floriaqua</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="L17" t="str">
+        <f>Items[[#This Row],[Name]]</f>
+        <v>Crystbell</v>
+      </c>
+      <c r="M17">
+        <f>SUMIF(D17:D30,L17,E17:E30)+SUMIF(Items[Component 2],L17,Items[Component 2 count])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f>B17</f>
+        <v>Crystbell</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>B19</f>
+        <v>Floriaqua</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="str">
+        <f>B27</f>
+        <v>Elixir</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>B30</f>
+        <v>Grass</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <f>B19</f>
+        <v>Floriaqua</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>B29</f>
+        <v>Earth</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f>B28</f>
+        <v>Arcane</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f>B30</f>
+        <v>Grass</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="str">
+        <f>B23</f>
+        <v xml:space="preserve">Flamejaw </v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f>B19</f>
+        <v>Floriaqua</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f>B32</f>
+        <v>Fire</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f>B27</f>
+        <v>Elixir</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f>B32</f>
+        <v>Fire</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="str">
+        <f>B34</f>
+        <v>Aether</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f>B29</f>
+        <v>Earth</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="str">
+        <f>B33</f>
+        <v>Water</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
+        <f>B34</f>
+        <v>Aether</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f>B33</f>
+        <v>Water</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B34</f>
+        <v>Aether</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f>B33</f>
+        <v>Water</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M4:M17">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CBCACE09-4F55-4075-951B-4F0C83D03451}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CBCACE09-4F55-4075-951B-4F0C83D03451}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D7C270-DCD4-4081-A7EE-2B3FECBFFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50EC59A-A25B-4316-81D4-4402B0D3AB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4744" yWindow="1379" windowWidth="20861" windowHeight="14509" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="4740" yWindow="1380" windowWidth="20865" windowHeight="14505" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,24 +233,27 @@
   <si>
     <t>Dusted Florite, it is very difficult to prevent the life energy within from withering, or rapidly growing once it gets in your nose.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timbit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +262,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,7 +290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,9 +351,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:I34" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B3:I34" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:I35" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B3:I35" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+  <sortState ref="B4:I34">
     <sortCondition ref="C3:C34"/>
   </sortState>
   <tableColumns count="8">
@@ -696,28 +691,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:M34"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="27">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,7 +744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="27">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -778,11 +773,11 @@
         <v>Elixir of Life</v>
       </c>
       <c r="M4">
-        <f>SUMIF(D4:D34,L4,E4:E34)+SUMIF(Items[Component 2],L4,Items[Component 2 count])</f>
+        <f>SUMIF(D4:D35,L4,E4:E35)+SUMIF(Items[Component 2],L4,Items[Component 2 count])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="54">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -815,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="54">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -848,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="54">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -881,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="67.5">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -914,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="54">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -947,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="81">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -980,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="67.5">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="40.5">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="67.5">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="54">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1207,7 +1202,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1225,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1253,7 +1248,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1276,7 +1271,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1292,7 +1287,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1315,7 +1310,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1333,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1356,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1372,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1395,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +1418,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1427,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1436,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1445,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1454,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1463,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1476,6 +1471,29 @@
         <v>5</v>
       </c>
       <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f>B27</f>
+        <v>Elixir</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>B28</f>
+        <v>Arcane</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/ItemTree.xlsx
+++ b/Assets/Editor/ItemTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuguan\Documents\GitHub\sprint01-factory-prototype\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\Sheridan\Year2\Y2S2\DesignPractice\FactoryGame\sprint01-factory-prototype\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50EC59A-A25B-4316-81D4-4402B0D3AB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552206C0-85D7-4EBA-A910-61ABC67E1BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1380" windowWidth="20865" windowHeight="14505" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
+    <workbookView xWindow="-23343" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{6A58C925-9F2D-4C6C-91BC-1ECBCC8690DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Flamejaw </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Elixir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,25 +242,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timbit</t>
+    <t>Basic element in the form of newborn life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Liquid Element, wet and cold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A solid basic element, hard and strudy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An element that emits heat and light.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A invisable element that exsits all around us.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An unknown substance that brings magic into this world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy of raw magic power, often harvested by sourcerers for spells and experiments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquid magic, some also refer to it as mana. Tastes like bitter honey.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water frozen into solid form, emits cold energy, very fragile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condensed and crystalized magic energy, often used as power source or medium of casting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water that dissolves, a liquid that acts like fire, melting materials tossed into it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A herb neurished with raw fire element, grew a flower with flame as peddles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil extracted from Flamejaw, highly flamable, a drip of this can burn 3 days and nights.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Air fused with energy of life, inhaling such matter can fight aginst aging and grow younger everyday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A herb with the strength of the earth itself, proven to grant mighty strength to those who eats it, poplular amongst soilders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water of florishment, a magical substance that gives life to almost any object or element.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matter between crystal and liquid, harvested from core of crystal bell, contains extreamely rich amount of magical energy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A crystal flower shaped like a bell, fragile yet beautiful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cold powder extracted from Frostblooms, very useful in condensation crafts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herb which breaths out air as cold as winter storm, can easily give a frostbite if touched with bare hands.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamejaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,7 +350,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,9 +436,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:I35" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B3:I35" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
-  <sortState ref="B4:I34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}" name="Items" displayName="Items" ref="B3:I34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B3:I34" xr:uid="{26679EAA-8BFE-48F6-A2D8-A3369DDEB193}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I34">
     <sortCondition ref="C3:C34"/>
   </sortState>
   <tableColumns count="8">
@@ -691,28 +776,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBD926-4FFC-43C9-8374-F00B833293BB}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="27">
+    <row r="3" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -744,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="27">
+    <row r="4" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -766,18 +851,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" t="str">
         <f>Items[[#This Row],[Name]]</f>
         <v>Elixir of Life</v>
       </c>
       <c r="M4">
-        <f>SUMIF(D4:D35,L4,E4:E35)+SUMIF(Items[Component 2],L4,Items[Component 2 count])</f>
+        <f>SUMIF(D4:D34,L4,E4:E34)+SUMIF(Items[Component 2],L4,Items[Component 2 count])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="54">
+    <row r="5" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -799,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -810,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="54">
+    <row r="6" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -832,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -843,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="54">
+    <row r="7" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -865,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -876,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="67.5">
+    <row r="8" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -898,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -909,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="54">
+    <row r="9" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -931,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -942,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="81">
+    <row r="10" spans="2:13" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -964,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -975,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="67.5">
+    <row r="11" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -1008,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="40.5">
+    <row r="12" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -1041,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="67.5">
+    <row r="13" spans="2:13" ht="55.7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -1067,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="54">
+    <row r="14" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" t="str">
         <f>Items[[#This Row],[Name]]</f>
@@ -1093,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1199,9 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="L15" t="str">
         <f>Items[[#This Row],[Name]]</f>
         <v>Frostbloom</v>
@@ -1124,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1138,7 +1225,9 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="L16" t="str">
         <f>Items[[#This Row],[Name]]</f>
         <v>Frostbloom Dust</v>
@@ -1148,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1258,9 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L17" t="str">
         <f>Items[[#This Row],[Name]]</f>
         <v>Crystbell</v>
@@ -1179,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1200,9 +1291,11 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="I18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1223,9 +1316,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="I19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1246,9 +1341,11 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="I20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -1269,9 +1366,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="I21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1280,16 +1379,18 @@
       </c>
       <c r="D22" t="str">
         <f>B23</f>
-        <v xml:space="preserve">Flamejaw </v>
+        <v>Flamejaw</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="I22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1308,11 +1409,13 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1331,9 +1434,11 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="I24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -1354,9 +1459,11 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="I25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1370,11 +1477,13 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1393,11 +1502,13 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="I27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="41.75" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1410,90 +1521,81 @@
         <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f>B33</f>
-        <v>Water</v>
+        <f>B31</f>
+        <v>Air</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="I28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="I29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:13">
+      <c r="I30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:13">
+      <c r="I31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="I32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="I33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="27.85" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f>B27</f>
-        <v>Elixir</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f>B28</f>
-        <v>Arcane</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
